--- a/Report_Tables.xlsx
+++ b/Report_Tables.xlsx
@@ -456,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -518,6 +518,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -851,15 +852,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -882,30 +883,36 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="10">
-        <v>153.24132929166601</v>
+        <v>153</v>
       </c>
       <c r="C2" s="10">
-        <v>609.31951716666595</v>
+        <v>609</v>
       </c>
       <c r="D2" s="10">
-        <v>481.90480161666602</v>
+        <v>482</v>
       </c>
       <c r="E2" s="10">
-        <v>213.82740946666601</v>
+        <v>214</v>
       </c>
       <c r="F2" s="10">
-        <v>186.806224166666</v>
+        <v>187</v>
       </c>
       <c r="G2" s="10">
-        <v>181.314817466666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
         <v>79</v>
       </c>
@@ -913,43 +920,71 @@
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <v>318.09318480000002</v>
+        <v>318</v>
       </c>
       <c r="D3" s="10">
-        <v>685.39320729999997</v>
+        <v>685</v>
       </c>
       <c r="E3" s="10">
-        <v>838.43018050000001</v>
+        <v>838</v>
       </c>
       <c r="F3" s="10">
-        <v>991.46715370000004</v>
+        <v>991</v>
       </c>
       <c r="G3" s="10">
-        <v>1144.5041269000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1145</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="10">
-        <v>153.24132929166601</v>
+        <v>153</v>
       </c>
       <c r="C4" s="10">
-        <v>927.41270196666596</v>
+        <v>927</v>
       </c>
       <c r="D4" s="10">
-        <v>1167.2980089166599</v>
+        <v>1167</v>
       </c>
       <c r="E4" s="10">
-        <v>1052.2575899666599</v>
+        <v>1052</v>
       </c>
       <c r="F4" s="10">
-        <v>1178.27337786666</v>
+        <v>1178</v>
       </c>
       <c r="G4" s="10">
-        <v>1325.8189443666599</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -962,15 +997,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -993,97 +1026,121 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="20">
-        <v>42129.492762365997</v>
+        <v>42129</v>
       </c>
       <c r="C2" s="20">
-        <v>49816.540448113097</v>
+        <v>49817</v>
       </c>
       <c r="D2" s="20">
-        <v>59550.815641568202</v>
+        <v>59551</v>
       </c>
       <c r="E2" s="20">
-        <v>71210.628726130002</v>
+        <v>71211</v>
       </c>
       <c r="F2" s="20">
-        <v>85229.874569015097</v>
+        <v>85230</v>
       </c>
       <c r="G2" s="21">
-        <v>102034.816912426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>102035</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="20">
-        <v>14619.5603624874</v>
+        <v>14620</v>
       </c>
       <c r="C3" s="20">
-        <v>17949.852468523699</v>
+        <v>17950</v>
       </c>
       <c r="D3" s="20">
-        <v>21393.5274852164</v>
+        <v>21394</v>
       </c>
       <c r="E3" s="20">
-        <v>25501.860240333099</v>
+        <v>25502</v>
       </c>
       <c r="F3" s="20">
-        <v>30457.886087901799</v>
+        <v>30458</v>
       </c>
       <c r="G3" s="21">
-        <v>36402.2091995023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>36402</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="20">
-        <v>27509.9323998785</v>
+        <v>27510</v>
       </c>
       <c r="C4" s="20">
-        <v>31866.6879795893</v>
+        <v>31867</v>
       </c>
       <c r="D4" s="20">
-        <v>38157.288156351802</v>
+        <v>38157</v>
       </c>
       <c r="E4" s="20">
-        <v>45708.7684857969</v>
+        <v>45709</v>
       </c>
       <c r="F4" s="20">
-        <v>54771.9884811132</v>
+        <v>54772</v>
       </c>
       <c r="G4" s="21">
-        <v>65632.607712923796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>65633</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="20">
-        <v>-533.641390878582</v>
+        <v>-534</v>
       </c>
       <c r="C5" s="20">
-        <v>-4356.7555797107598</v>
+        <v>-4357</v>
       </c>
       <c r="D5" s="20">
-        <v>-6290.6001767624703</v>
+        <v>-6291</v>
       </c>
       <c r="E5" s="20">
-        <v>-7551.4803294450903</v>
+        <v>-7551</v>
       </c>
       <c r="F5" s="20">
-        <v>-9063.2199953163199</v>
+        <v>-9063</v>
       </c>
       <c r="G5" s="21">
-        <v>-10860.6192318106</v>
-      </c>
+        <v>-10861</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -1096,13 +1153,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -1123,70 +1180,77 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="10">
-        <v>30594.132000000001</v>
+        <v>30594</v>
       </c>
       <c r="C2" s="10">
-        <v>852224.78780000005</v>
+        <v>852225</v>
       </c>
       <c r="D2" s="23">
-        <v>3.5899134169727703E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="E2" s="24">
-        <v>0.82991347327367704</v>
+        <v>0.83</v>
       </c>
       <c r="F2" s="25">
-        <v>0.80730778586720897</v>
+        <v>0.81</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="10">
-        <v>23372.186244</v>
+        <v>23372</v>
       </c>
       <c r="C3" s="10">
-        <v>169004.79120000001</v>
+        <v>169005</v>
       </c>
       <c r="D3" s="23">
-        <v>0.138293039375087</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="E3" s="24">
-        <v>1.1681941316048801</v>
+        <v>1.17</v>
       </c>
       <c r="F3" s="25">
-        <v>1.05445191107236</v>
+        <v>1.05</v>
       </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="10">
-        <v>1005.9804370000001</v>
+        <v>1006</v>
       </c>
       <c r="C4" s="10">
-        <v>436600.15490000002</v>
+        <v>436600</v>
       </c>
       <c r="D4" s="23">
-        <v>2.3041229502779501E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E4" s="24">
-        <v>1.1253179028687099</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F4" s="25">
-        <v>1.12329909187896</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="16"/>
       <c r="B5" s="10"/>
       <c r="C5" s="19"/>
@@ -1207,9 +1271,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1217,7 +1283,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1228,29 +1294,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="8">
-        <v>276073.21268437698</v>
+        <v>276073</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="8">
-        <v>63859.221011000001</v>
+        <v>63859</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1260,19 +1328,21 @@
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="10">
-        <v>339932.43369537703</v>
+        <v>339932</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1282,19 +1352,21 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="10">
-        <v>673133.53207005397</v>
+        <v>673134</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1313,7 +1385,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1322,7 +1394,7 @@
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1381,16 +1453,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
@@ -1414,145 +1488,182 @@
       </c>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="33">
-        <v>23758.017005000002</v>
+        <v>23758</v>
       </c>
       <c r="C2" s="33">
-        <v>111992.920723</v>
+        <v>111993</v>
       </c>
       <c r="D2" s="33">
-        <v>133813.598952</v>
+        <v>133814</v>
       </c>
       <c r="E2" s="33">
-        <v>160106.30236999999</v>
+        <v>160106</v>
       </c>
       <c r="F2" s="33">
-        <v>191509.00934700001</v>
+        <v>191509</v>
       </c>
       <c r="G2" s="31">
-        <v>229084.26440099999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>229084</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="33">
-        <v>10798.4620238473</v>
+        <v>10798</v>
       </c>
       <c r="C3" s="33">
-        <v>50341.870831841101</v>
+        <v>50342</v>
       </c>
       <c r="D3" s="33">
-        <v>60215.968737461299</v>
+        <v>60216</v>
       </c>
       <c r="E3" s="33">
-        <v>71951.432655850003</v>
+        <v>71951</v>
       </c>
       <c r="F3" s="33">
-        <v>86185.797842998494</v>
+        <v>86186</v>
       </c>
       <c r="G3" s="31">
-        <v>103288.32291428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>103288</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="33">
-        <v>2746.08761844428</v>
+        <v>2746</v>
       </c>
       <c r="C4" s="33">
-        <v>18798.931919125502</v>
+        <v>18799</v>
       </c>
       <c r="D4" s="33">
-        <v>21897.877229455298</v>
+        <v>21898</v>
       </c>
       <c r="E4" s="33">
-        <v>25539.2772891165</v>
+        <v>25539</v>
       </c>
       <c r="F4" s="33">
-        <v>29961.4918168681</v>
+        <v>29961</v>
       </c>
       <c r="G4" s="31">
-        <v>35261.765208085599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>35262</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="33">
-        <v>10213.467362708299</v>
+        <v>10213</v>
       </c>
       <c r="C5" s="33">
-        <v>42852.117972033302</v>
+        <v>42852</v>
       </c>
       <c r="D5" s="33">
-        <v>51699.752985083302</v>
+        <v>51700</v>
       </c>
       <c r="E5" s="33">
-        <v>62615.592425033297</v>
+        <v>62616</v>
       </c>
       <c r="F5" s="33">
-        <v>75361.7196871333</v>
+        <v>75362</v>
       </c>
       <c r="G5" s="31">
-        <v>90534.176278633298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>90534</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="33">
-        <v>-2224.96281979583</v>
+        <v>-2225</v>
       </c>
       <c r="C6" s="33">
-        <v>-9903.8125492320596</v>
+        <v>-9904</v>
       </c>
       <c r="D6" s="33">
-        <v>-12044.9402223901</v>
+        <v>-12045</v>
       </c>
       <c r="E6" s="33">
-        <v>-14686.573366858</v>
+        <v>-14687</v>
       </c>
       <c r="F6" s="33">
-        <v>-17771.136164286199</v>
+        <v>-17771</v>
       </c>
       <c r="G6" s="31">
-        <v>-21442.870659429202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-21443</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="29" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="33">
-        <v>153.24132929166601</v>
+        <v>153</v>
       </c>
       <c r="C7" s="33">
-        <v>927.41270196666596</v>
+        <v>927</v>
       </c>
       <c r="D7" s="33">
-        <v>1167.2980089166599</v>
+        <v>1167</v>
       </c>
       <c r="E7" s="33">
-        <v>1052.2575899666599</v>
+        <v>1052</v>
       </c>
       <c r="F7" s="33">
-        <v>1178.27337786666</v>
+        <v>1178</v>
       </c>
       <c r="G7" s="31">
-        <v>1325.8189443666599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1326</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="29" t="s">
         <v>58</v>
       </c>
@@ -1560,68 +1671,86 @@
         <v>0</v>
       </c>
       <c r="C8" s="33">
-        <v>-25680.931848</v>
+        <v>-25681</v>
       </c>
       <c r="D8" s="33">
-        <v>-492.068377</v>
+        <v>-492</v>
       </c>
       <c r="E8" s="33">
-        <v>-1038.3013550000001</v>
+        <v>-1038</v>
       </c>
       <c r="F8" s="33">
-        <v>-492.068377</v>
+        <v>-492</v>
       </c>
       <c r="G8" s="31">
-        <v>-1038.3013550000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-1038</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="33">
-        <v>-533.641390878582</v>
+        <v>-534</v>
       </c>
       <c r="C9" s="33">
-        <v>-4356.7555797107598</v>
+        <v>-4357</v>
       </c>
       <c r="D9" s="33">
-        <v>-6290.6001767624703</v>
+        <v>-6291</v>
       </c>
       <c r="E9" s="33">
-        <v>-7551.4803294450903</v>
+        <v>-7551</v>
       </c>
       <c r="F9" s="33">
-        <v>-9063.2199953163199</v>
+        <v>-9063</v>
       </c>
       <c r="G9" s="31">
-        <v>-10860.6192318106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-10861</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="29" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="33">
-        <v>7608.1044813255803</v>
+        <v>7608</v>
       </c>
       <c r="C10" s="33">
-        <v>3838.0306970571601</v>
+        <v>3838</v>
       </c>
       <c r="D10" s="33">
-        <v>34039.442217847303</v>
+        <v>34039</v>
       </c>
       <c r="E10" s="33">
-        <v>40391.494963696801</v>
+        <v>40391</v>
       </c>
       <c r="F10" s="33">
-        <v>49213.568528397402</v>
+        <v>49214</v>
       </c>
       <c r="G10" s="31">
-        <v>58518.203976760102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>58518</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1641,13 +1770,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
@@ -1659,115 +1788,133 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="31">
-        <v>229084.26440099999</v>
+        <v>229084</v>
       </c>
       <c r="C2" s="31">
-        <v>229084.26440099999</v>
+        <v>229084</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="31">
-        <v>103288.32291428</v>
+        <v>103288</v>
       </c>
       <c r="C3" s="31">
-        <v>103288.32291428</v>
+        <v>103288</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="31">
-        <v>35261.765208085599</v>
+        <v>35262</v>
       </c>
       <c r="C4" s="31">
-        <v>35261.765208085599</v>
+        <v>35262</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="31">
-        <v>90534.176278633298</v>
+        <v>90534</v>
       </c>
       <c r="C5" s="31">
-        <v>90534.176278633298</v>
+        <v>90534</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="31">
-        <v>-21442.870659429202</v>
+        <v>-21443</v>
       </c>
       <c r="C6" s="31">
-        <v>-21442.870659429202</v>
+        <v>-21443</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="31">
-        <v>1325.8189443666599</v>
+        <v>1326</v>
       </c>
       <c r="C7" s="31">
-        <v>1325.8189443666599</v>
+        <v>1326</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="31">
-        <v>-1038.3013550000001</v>
+        <v>-1038</v>
       </c>
       <c r="C8" s="31">
-        <v>-1325.8189443666599</v>
+        <v>-1326</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="31">
-        <v>-10860.6192318106</v>
+        <v>-10861</v>
       </c>
       <c r="C9" s="31">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="31">
-        <v>58518.203976760102</v>
+        <v>58518</v>
       </c>
       <c r="C10" s="31">
-        <v>69091.305619203995</v>
+        <v>69091</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1784,15 +1931,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1815,76 +1960,97 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15">
       <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="14">
-        <v>22776.152000999999</v>
+        <v>22776</v>
       </c>
       <c r="C2" s="14">
-        <v>108605.80319999999</v>
+        <v>108606</v>
       </c>
       <c r="D2" s="14">
-        <v>129468.97799499999</v>
+        <v>129469</v>
       </c>
       <c r="E2" s="14">
-        <v>154339.96866700001</v>
+        <v>154340</v>
       </c>
       <c r="F2" s="14">
-        <v>183988.67664799999</v>
+        <v>183989</v>
       </c>
       <c r="G2" s="15">
-        <v>219332.90143299999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>219333</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="14">
-        <v>981.865004</v>
+        <v>982</v>
       </c>
       <c r="C3" s="14">
-        <v>3387.1175229999999</v>
+        <v>3387</v>
       </c>
       <c r="D3" s="14">
-        <v>4344.6209570000001</v>
+        <v>4345</v>
       </c>
       <c r="E3" s="14">
-        <v>5766.3337030000002</v>
+        <v>5766</v>
       </c>
       <c r="F3" s="14">
-        <v>7520.3326989999996</v>
+        <v>7520</v>
       </c>
       <c r="G3" s="15">
-        <v>9751.3629679999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9751</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="15">
-        <v>23758.017005000002</v>
+        <v>23758</v>
       </c>
       <c r="C4" s="15">
-        <v>111992.920723</v>
+        <v>111993</v>
       </c>
       <c r="D4" s="15">
-        <v>133813.598952</v>
+        <v>133814</v>
       </c>
       <c r="E4" s="15">
-        <v>160106.30236999999</v>
+        <v>160106</v>
       </c>
       <c r="F4" s="15">
-        <v>191509.00934700001</v>
+        <v>191509</v>
       </c>
       <c r="G4" s="15">
-        <v>229084.26440099999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>229084</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1904,18 +2070,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1938,166 +2102,208 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="15">
-        <v>9785.5320158473805</v>
+        <v>9786</v>
       </c>
       <c r="C2" s="15">
-        <v>46779.5902888411</v>
+        <v>46780</v>
       </c>
       <c r="D2" s="15">
-        <v>55782.213615461304</v>
+        <v>55782</v>
       </c>
       <c r="E2" s="15">
-        <v>66221.821042850104</v>
+        <v>66222</v>
       </c>
       <c r="F2" s="15">
-        <v>78857.558936998495</v>
+        <v>78858</v>
       </c>
       <c r="G2" s="15">
-        <v>93924.838121280904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>93925</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="15">
-        <v>1012.930008</v>
+        <v>1013</v>
       </c>
       <c r="C3" s="15">
-        <v>3562.2805429999999</v>
+        <v>3562</v>
       </c>
       <c r="D3" s="15">
-        <v>4433.7551219999996</v>
+        <v>4434</v>
       </c>
       <c r="E3" s="15">
-        <v>5729.611613</v>
+        <v>5730</v>
       </c>
       <c r="F3" s="15">
-        <v>7328.2389059999996</v>
+        <v>7328</v>
       </c>
       <c r="G3" s="15">
-        <v>9363.4847929999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9363</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
-        <v>10798.4620238473</v>
+        <v>10798</v>
       </c>
       <c r="C4" s="15">
-        <v>50341.870831841101</v>
+        <v>50342</v>
       </c>
       <c r="D4" s="15">
-        <v>60215.968737461299</v>
+        <v>60216</v>
       </c>
       <c r="E4" s="15">
-        <v>71951.432655850003</v>
+        <v>71951</v>
       </c>
       <c r="F4" s="15">
-        <v>86185.797842998494</v>
+        <v>86186</v>
       </c>
       <c r="G4" s="15">
-        <v>103288.32291428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>103288</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="10">
-        <v>1542.8532029999999</v>
+        <v>1543</v>
       </c>
       <c r="C5" s="10">
-        <v>6612.4433410000001</v>
+        <v>6612</v>
       </c>
       <c r="D5" s="10">
-        <v>8059.1217420000003</v>
+        <v>8059</v>
       </c>
       <c r="E5" s="10">
-        <v>9944.8604149999992</v>
+        <v>9945</v>
       </c>
       <c r="F5" s="10">
-        <v>12226.874494</v>
+        <v>12227</v>
       </c>
       <c r="G5" s="10">
-        <v>15027.812330000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>15028</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="10">
-        <v>8989.3116900000005</v>
+        <v>8989</v>
       </c>
       <c r="C6" s="10">
-        <v>42433.139195000003</v>
+        <v>42433</v>
       </c>
       <c r="D6" s="10">
-        <v>50686.799061999998</v>
+        <v>50687</v>
       </c>
       <c r="E6" s="10">
-        <v>60619.387949000004</v>
+        <v>60619</v>
       </c>
       <c r="F6" s="10">
-        <v>72479.747306999998</v>
+        <v>72480</v>
       </c>
       <c r="G6" s="10">
-        <v>86665.166052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>86665</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="10">
-        <v>151.423428</v>
+        <v>151</v>
       </c>
       <c r="C7" s="10">
-        <v>614.81072400000005</v>
+        <v>615</v>
       </c>
       <c r="D7" s="10">
-        <v>617.26996699999995</v>
+        <v>617</v>
       </c>
       <c r="E7" s="10">
-        <v>623.44266800000003</v>
+        <v>623</v>
       </c>
       <c r="F7" s="10">
-        <v>630.92398000000003</v>
+        <v>631</v>
       </c>
       <c r="G7" s="10">
-        <v>642.91153599999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>643</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="10">
-        <v>106.331671847386</v>
+        <v>106</v>
       </c>
       <c r="C8" s="10">
-        <v>650.90639584114604</v>
+        <v>651</v>
       </c>
       <c r="D8" s="10">
-        <v>822.08450546130803</v>
+        <v>822</v>
       </c>
       <c r="E8" s="10">
-        <v>732.74122785010195</v>
+        <v>733</v>
       </c>
       <c r="F8" s="10">
-        <v>816.87966199848995</v>
+        <v>817</v>
       </c>
       <c r="G8" s="10">
-        <v>920.46452128097201</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2110,13 +2316,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2139,138 +2347,180 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="19">
-        <v>1028.004702</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="19">
-        <v>11120.929878000001</v>
+        <v>11121</v>
       </c>
       <c r="D2" s="19">
-        <v>13287.729627000001</v>
+        <v>13288</v>
       </c>
       <c r="E2" s="19">
-        <v>15898.602788</v>
+        <v>15899</v>
       </c>
       <c r="F2" s="19">
-        <v>19016.900802</v>
+        <v>19017</v>
       </c>
       <c r="G2" s="10">
-        <v>22748.134652000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>22748</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="19">
-        <v>926.89261499999998</v>
+        <v>927</v>
       </c>
       <c r="C3" s="19">
-        <v>4369.2792730000001</v>
+        <v>4369</v>
       </c>
       <c r="D3" s="19">
-        <v>5220.5887720000001</v>
+        <v>5221</v>
       </c>
       <c r="E3" s="19">
-        <v>6246.3693599999997</v>
+        <v>6246</v>
       </c>
       <c r="F3" s="19">
-        <v>7471.5110549999999</v>
+        <v>7472</v>
       </c>
       <c r="G3" s="10">
-        <v>8937.4678500000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8937</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="19">
-        <v>744.28064400000005</v>
+        <v>744</v>
       </c>
       <c r="C4" s="19">
-        <v>3032.2164619999999</v>
+        <v>3032</v>
       </c>
       <c r="D4" s="19">
-        <v>3044.345327</v>
+        <v>3044</v>
       </c>
       <c r="E4" s="19">
-        <v>3074.788779</v>
+        <v>3075</v>
       </c>
       <c r="F4" s="19">
-        <v>3111.686244</v>
+        <v>3112</v>
       </c>
       <c r="G4" s="10">
-        <v>3170.8082829999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>3171</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="19">
-        <v>46.909657444280498</v>
+        <v>47</v>
       </c>
       <c r="C5" s="19">
-        <v>276.50630612551998</v>
+        <v>277</v>
       </c>
       <c r="D5" s="19">
-        <v>345.21350345535802</v>
+        <v>345</v>
       </c>
       <c r="E5" s="19">
-        <v>319.51636211656398</v>
+        <v>320</v>
       </c>
       <c r="F5" s="19">
-        <v>361.393715868176</v>
+        <v>361</v>
       </c>
       <c r="G5" s="10">
-        <v>405.35442308569401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>405</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="19">
-        <v>2746.08761844428</v>
+        <v>2746</v>
       </c>
       <c r="C6" s="19">
-        <v>18798.931919125502</v>
+        <v>18799</v>
       </c>
       <c r="D6" s="19">
-        <v>21897.877229455298</v>
+        <v>21898</v>
       </c>
       <c r="E6" s="19">
-        <v>25539.2772891165</v>
+        <v>25539</v>
       </c>
       <c r="F6" s="19">
-        <v>29961.4918168681</v>
+        <v>29961</v>
       </c>
       <c r="G6" s="10">
-        <v>35261.765208085599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>35262</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2278,7 +2528,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:14">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2286,7 +2536,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:14">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2294,7 +2544,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:14">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2302,7 +2552,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:14">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2310,7 +2560,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:14">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2318,7 +2568,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:14">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2326,7 +2576,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:14">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2441,10 +2691,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2452,7 +2702,7 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,7 +2725,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
         <v>73</v>
       </c>
@@ -2497,8 +2747,14 @@
       <c r="G2" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
         <v>74</v>
       </c>
@@ -2520,8 +2776,14 @@
       <c r="G3" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
         <v>75</v>
       </c>
@@ -2529,22 +2791,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>670.93184799999995</v>
+        <v>671</v>
       </c>
       <c r="D4" s="15">
-        <v>481.76837699999999</v>
+        <v>482</v>
       </c>
       <c r="E4" s="15">
-        <v>957.563355</v>
+        <v>958</v>
       </c>
       <c r="F4" s="15">
-        <v>481.76837699999999</v>
+        <v>482</v>
       </c>
       <c r="G4" s="15">
-        <v>957.563355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>958</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
         <v>76</v>
       </c>
@@ -2555,19 +2823,25 @@
         <v>10</v>
       </c>
       <c r="D5" s="15">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="15">
-        <v>80.738</v>
+        <v>81</v>
       </c>
       <c r="F5" s="15">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="G5" s="15">
-        <v>80.738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -2575,20 +2849,26 @@
         <v>0</v>
       </c>
       <c r="C6" s="15">
-        <v>25680.931848</v>
+        <v>25681</v>
       </c>
       <c r="D6" s="15">
-        <v>492.068377</v>
+        <v>492</v>
       </c>
       <c r="E6" s="15">
-        <v>1038.3013550000001</v>
+        <v>1038</v>
       </c>
       <c r="F6" s="15">
-        <v>492.068377</v>
+        <v>492</v>
       </c>
       <c r="G6" s="15">
-        <v>1038.3013550000001</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Report_Tables.xlsx
+++ b/Report_Tables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>구 분</t>
   </si>
@@ -239,6 +239,93 @@
   </si>
   <si>
     <t>Terminal year</t>
+  </si>
+  <si>
+    <t>276,073</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,859</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>339</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>932</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>673</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>134</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -368,7 +455,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,6 +471,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -660,7 +750,7 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -745,73 +835,73 @@
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8">
-        <v>276073</v>
+      <c r="B2" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8">
-        <v>63859</v>
+      <c r="B3" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="10">
-        <v>339932</v>
+      <c r="B5" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10">
-        <v>505000</v>
+      <c r="B6" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="10">
-        <v>673134</v>
+      <c r="B7" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
@@ -842,50 +932,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -902,9 +992,7 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -912,290 +1000,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>23758</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>111993</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>133814</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>160106</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>191509</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>229084</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>10798</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>50342</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>60216</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>71951</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>86186</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>103288</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2746</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>18799</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>21898</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>25539</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>29961</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>35262</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>10213</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>42852</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>51700</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>62616</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>75362</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>90534</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>-2225</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>-9904</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>-12045</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>-14687</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>-17771</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>-21443</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>153</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>927</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1167</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>1052</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>1178</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>1326</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>-25681</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>-492</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>-1038</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>-492</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>-1038</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>-534</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>-4357</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>-6291</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>-7551</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>-9063</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>-10861</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>7608</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>3838</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>34039</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>40391</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>49214</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>58518</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
@@ -1224,142 +1312,142 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>229084</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>229084</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>103288</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>103288</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>35262</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>35262</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>90534</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>90534</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>-21443</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>-21443</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>1326</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>1326</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>-1038</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>-1326</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>-10861</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>58518</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>69091</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
@@ -1370,5 +1458,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>